--- a/results/jdbc_jdbc-template_hibernate_spring-data-jpa_my-batis.xlsx
+++ b/results/jdbc_jdbc-template_hibernate_spring-data-jpa_my-batis.xlsx
@@ -346,11 +346,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1639379591"/>
-        <c:axId val="1823075447"/>
+        <c:axId val="918357996"/>
+        <c:axId val="140222364"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1639379591"/>
+        <c:axId val="918357996"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,13 +360,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1823075447"/>
+        <c:crossAx val="140222364"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1823075447"/>
+        <c:axId val="140222364"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -381,7 +381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1639379591"/>
+        <c:crossAx val="918357996"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -428,7 +428,7 @@
         <xdr:cNvPr id="1" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3c89f1b4-2648-4a96-bc4d-b7b69b310fb1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9883cf76-24e5-4125-80d8-ba7a09e679bc}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -745,7 +745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6040b45f-53c9-4d9e-aff5-f86050694c17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f609b47a-52b7-4c72-b6c3-df0ff5e60828}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.0892</v>
+        <v>1.3185</v>
       </c>
       <c r="C2">
-        <v>1.1827999999999999</v>
+        <v>1.3509</v>
       </c>
       <c r="D2">
-        <v>1.9618</v>
+        <v>2.0206</v>
       </c>
       <c r="E2">
-        <v>1.982</v>
+        <v>2.1736</v>
       </c>
       <c r="F2">
-        <v>1.8791</v>
+        <v>7.324199999999999</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
@@ -794,19 +794,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1973</v>
+        <v>0.1911</v>
       </c>
       <c r="C3">
-        <v>0.2017</v>
+        <v>0.1976</v>
       </c>
       <c r="D3">
-        <v>0.213</v>
+        <v>0.2334</v>
       </c>
       <c r="E3">
-        <v>0.2847</v>
+        <v>0.2083</v>
       </c>
       <c r="F3">
-        <v>0.2089</v>
+        <v>0.2179</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -814,19 +814,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7298</v>
+        <v>0.6842</v>
       </c>
       <c r="C4">
-        <v>0.739</v>
+        <v>0.6806</v>
       </c>
       <c r="D4">
-        <v>0.726</v>
+        <v>0.7253999999999999</v>
       </c>
       <c r="E4">
-        <v>0.7652</v>
+        <v>0.6814</v>
       </c>
       <c r="F4">
-        <v>0.7228</v>
+        <v>0.7007000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75">
@@ -834,19 +834,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9392999999999999</v>
+        <v>0.9018999999999999</v>
       </c>
       <c r="C5">
-        <v>0.8983</v>
+        <v>0.8776</v>
       </c>
       <c r="D5">
-        <v>0.8967</v>
+        <v>0.9133</v>
       </c>
       <c r="E5">
-        <v>0.901</v>
+        <v>0.8817</v>
       </c>
       <c r="F5">
-        <v>0.8957</v>
+        <v>0.8677999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400a1af3-85c2-4a25-9077-83d0dbe3f429}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95023e17-05f2-47b3-b71b-12b4fd32686e}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/results/jdbc_jdbc-template_hibernate_spring-data-jpa_my-batis.xlsx
+++ b/results/jdbc_jdbc-template_hibernate_spring-data-jpa_my-batis.xlsx
@@ -346,11 +346,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="918357996"/>
-        <c:axId val="140222364"/>
+        <c:axId val="1688765722"/>
+        <c:axId val="1529335869"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="918357996"/>
+        <c:axId val="1688765722"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,13 +360,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140222364"/>
+        <c:crossAx val="1529335869"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140222364"/>
+        <c:axId val="1529335869"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -381,7 +381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="918357996"/>
+        <c:crossAx val="1688765722"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -428,7 +428,7 @@
         <xdr:cNvPr id="1" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9883cf76-24e5-4125-80d8-ba7a09e679bc}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1b9ddd66-3ea1-4b9c-b885-e11dacc618a3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -745,7 +745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f609b47a-52b7-4c72-b6c3-df0ff5e60828}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508661ec-23d3-4443-b990-5ba256745098}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.3185</v>
+        <v>1.3080999999999998</v>
       </c>
       <c r="C2">
-        <v>1.3509</v>
+        <v>1.3342</v>
       </c>
       <c r="D2">
-        <v>2.0206</v>
+        <v>1.9897</v>
       </c>
       <c r="E2">
-        <v>2.1736</v>
+        <v>2.1071</v>
       </c>
       <c r="F2">
-        <v>7.324199999999999</v>
+        <v>8.0122</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
@@ -794,19 +794,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1911</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
-        <v>0.1976</v>
+        <v>0.196</v>
       </c>
       <c r="D3">
-        <v>0.2334</v>
+        <v>0.21409999999999998</v>
       </c>
       <c r="E3">
-        <v>0.2083</v>
+        <v>0.2175</v>
       </c>
       <c r="F3">
-        <v>0.2179</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -814,19 +814,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6842</v>
+        <v>0.6721</v>
       </c>
       <c r="C4">
-        <v>0.6806</v>
+        <v>0.6827000000000001</v>
       </c>
       <c r="D4">
-        <v>0.7253999999999999</v>
+        <v>0.6728</v>
       </c>
       <c r="E4">
-        <v>0.6814</v>
+        <v>0.6751</v>
       </c>
       <c r="F4">
-        <v>0.7007000000000001</v>
+        <v>0.6852999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75">
@@ -834,19 +834,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9018999999999999</v>
+        <v>0.893</v>
       </c>
       <c r="C5">
-        <v>0.8776</v>
+        <v>0.8924</v>
       </c>
       <c r="D5">
-        <v>0.9133</v>
+        <v>0.8543</v>
       </c>
       <c r="E5">
-        <v>0.8817</v>
+        <v>0.8767</v>
       </c>
       <c r="F5">
-        <v>0.8677999999999999</v>
+        <v>0.8857999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95023e17-05f2-47b3-b71b-12b4fd32686e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{e44cd42a-f8cb-412d-8aff-8b29501bdaaf}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
